--- a/sample/excel/Complex_Translated_Demo.xlsx
+++ b/sample/excel/Complex_Translated_Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83782E9C-6771-4274-AABB-F8CA42D70D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B59562-D2BA-423F-9851-22AE391DD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="555" windowWidth="21015" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension Investment Status" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Company Name</t>
     <phoneticPr fontId="3"/>
@@ -293,9 +293,6 @@
     <t>Report generated should be in .xlsx format.</t>
   </si>
   <si>
-    <t>## shareholder</t>
-  </si>
-  <si>
     <t>!!v assetCode</t>
   </si>
   <si>
@@ -315,6 +312,100 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>##checkInflow</t>
+  </si>
+  <si>
+    <t>##checkOutflow</t>
+  </si>
+  <si>
+    <t>##totalTransDayOutflow</t>
+  </si>
+  <si>
+    <t>##assetManagerCode1</t>
+  </si>
+  <si>
+    <t>##clientCode1</t>
+  </si>
+  <si>
+    <t>##DateYear</t>
+  </si>
+  <si>
+    <t>##DateMonth</t>
+  </si>
+  <si>
+    <t>ABC Company Ltd.</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Asset Management Co.</t>
+  </si>
+  <si>
+    <t>##assetManagerCode2</t>
+  </si>
+  <si>
+    <t>##netIncreaseDecrease</t>
+  </si>
+  <si>
+    <t>##clientWithdrawal</t>
+  </si>
+  <si>
+    <t>##clientContribution</t>
+  </si>
+  <si>
+    <t>##totalCashOutflow</t>
+  </si>
+  <si>
+    <t>ABC Company</t>
+  </si>
+  <si>
+    <t>##reportingMonth</t>
+  </si>
+  <si>
+    <t>!!v security_cd</t>
+  </si>
+  <si>
+    <t>!!v securityDescription</t>
+  </si>
+  <si>
+    <t>!!v market_value_bs</t>
+  </si>
+  <si>
+    <t>!!v trade_ccy_cd</t>
+  </si>
+  <si>
+    <t>!!v outflow</t>
+  </si>
+  <si>
+    <t>!!v daysOutflow</t>
+  </si>
+  <si>
+    <t>!!v inflow</t>
+  </si>
+  <si>
+    <t>!!v daysInflow</t>
+  </si>
+  <si>
+    <t>!!v previousMonthNAV</t>
+  </si>
+  <si>
+    <t>!!v currentMonthNAV</t>
+  </si>
+  <si>
+    <t>!!v exposure</t>
+  </si>
+  <si>
+    <t>!!v compositionRate</t>
+  </si>
+  <si>
+    <t>Contract Basis/Accrual Basis</t>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>81(3)0000-0000</t>
   </si>
 </sst>
 </file>
@@ -1536,9 +1627,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="11" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1699,9 +1787,66 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,62 +1877,26 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="30" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="31" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="32" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="28" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1798,9 +1907,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="29" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="41" fillId="38" borderId="30" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,23 +1916,8 @@
     <xf numFmtId="166" fontId="41" fillId="38" borderId="32" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="30" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="31" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="32" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -2384,8 +2475,8 @@
   </sheetPr>
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2408,17 +2499,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="27" customHeight="1">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1">
@@ -2426,78 +2517,96 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="2:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="108" t="s">
+      <c r="D4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="47"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="2:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="72" t="s">
+      <c r="D5" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="37"/>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="7" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="103" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="79" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="106" t="s">
+      <c r="J7" s="88" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="67"/>
+        <v>82</v>
+      </c>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2510,87 +2619,103 @@
       <c r="H8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="107"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="8"/>
       <c r="L8" s="92"/>
     </row>
     <row r="9" spans="2:15" ht="54">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="O9" s="35"/>
+      <c r="D9" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="O10" s="35"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="O12" s="35"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="54"/>
+      <c r="L12" s="55"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="55"/>
-      <c r="L13" s="56"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="10"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="17"/>
       <c r="L14" s="20" t="e">
         <f>J14/J16</f>
@@ -2599,13 +2724,13 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="10"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="17"/>
       <c r="L15" s="20" t="e">
         <f>J15/J16</f>
@@ -2619,131 +2744,145 @@
       <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <f>SUM(D9:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25" t="str">
         <f>+D21</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="27">
+        <v>##clientContribution</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="26">
         <f>SUM(I9:I15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="27">
         <f>SUM(J9:J15)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="2:11">
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:11">
       <c r="E18" s="8"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="93"/>
       <c r="I20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="70"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B21" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="58" t="s">
+        <v>97</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="I21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="60"/>
+        <v>81</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="54" t="s">
+        <v>98</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="I22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="60" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="I23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="61"/>
+      <c r="J23" s="60" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="62"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="61" t="s">
+        <v>95</v>
+      </c>
       <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="27" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
     </row>
     <row r="28" spans="2:11" ht="40.5">
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="71" t="s">
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79" t="s">
+      <c r="F28" s="86"/>
+      <c r="G28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="73" t="s">
+      <c r="H28" s="98"/>
+      <c r="I28" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="73" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="18">
         <f>E29 - D29</f>
         <v>0</v>
@@ -2754,44 +2893,58 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.25" thickBot="1">
-      <c r="G30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
+      <c r="G30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
     </row>
     <row r="31" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B31" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="83"/>
+      <c r="B31" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="101"/>
       <c r="D31" s="22"/>
-      <c r="G31" s="32"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="G32" s="32"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="32"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="32"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="32"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="32"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="33"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="32"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="34"/>
+      <c r="G39" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -2802,20 +2955,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <printOptions horizontalCentered="1"/>
@@ -2833,15 +2972,15 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="61.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="38" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
@@ -2854,112 +2993,126 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="67"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
+      <c r="A7" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="65"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="40"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="29"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="40"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="36"/>
+      <c r="E21" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -2975,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2986,263 +3139,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B18:E18"/>
@@ -3257,24 +3400,34 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3392,14 +3545,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3410,6 +3555,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sample/excel/Complex_Translated_Demo.xlsx
+++ b/sample/excel/Complex_Translated_Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\sample\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/928d0949f298cdc5/Documents/GitHub/rendr/sample/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B59562-D2BA-423F-9851-22AE391DD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{10B59562-D2BA-423F-9851-22AE391DD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C3F4B1-4AD5-4C65-A5AE-3B7308A8B66C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pension Investment Status" sheetId="3" r:id="rId1"/>
@@ -365,9 +365,6 @@
     <t>!!v security_cd</t>
   </si>
   <si>
-    <t>!!v securityDescription</t>
-  </si>
-  <si>
     <t>!!v market_value_bs</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>81(3)0000-0000</t>
+  </si>
+  <si>
+    <t>!!v securityDescription ++</t>
   </si>
 </sst>
 </file>
@@ -1787,6 +1787,63 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,9 +1868,6 @@
     <xf numFmtId="38" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1826,60 +1880,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="28" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="29" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="41" fillId="38" borderId="30" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="38" borderId="31" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="38" borderId="32" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="77" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1897,27 +1918,6 @@
     </xf>
     <xf numFmtId="40" fontId="22" fillId="0" borderId="32" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="28" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="29" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="38" borderId="30" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="38" borderId="31" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="38" borderId="32" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -2479,37 +2479,37 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="27" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1">
@@ -2523,12 +2523,12 @@
         <v>92</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90"/>
+      <c r="H3" s="108"/>
       <c r="I3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="13.5" customHeight="1" thickBot="1">
@@ -2544,12 +2544,12 @@
       <c r="F4" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="90"/>
+      <c r="H4" s="108"/>
       <c r="I4" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="46"/>
     </row>
@@ -2566,35 +2566,35 @@
       <c r="F5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="2:15" ht="14.25" thickBot="1"/>
+    <row r="6" spans="2:15" ht="14.4" thickBot="1"/>
     <row r="7" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="86" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="88" t="s">
+      <c r="J7" s="106" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="8"/>
@@ -2604,9 +2604,9 @@
       <c r="N7" s="66"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="13" t="s">
         <v>29</v>
       </c>
@@ -2619,12 +2619,12 @@
       <c r="H8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="89"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="107"/>
       <c r="K8" s="8"/>
       <c r="L8" s="92"/>
     </row>
-    <row r="9" spans="2:15" ht="54">
+    <row r="9" spans="2:15" ht="96.6">
       <c r="B9" s="50" t="s">
         <v>78</v>
       </c>
@@ -2632,28 +2632,28 @@
         <v>79</v>
       </c>
       <c r="D9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="52" t="s">
+      <c r="J9" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="L9" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>112</v>
       </c>
       <c r="O9" s="34"/>
     </row>
@@ -2737,7 +2737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.25" thickBot="1">
+    <row r="16" spans="2:15" ht="14.4" thickBot="1">
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
@@ -2773,20 +2773,20 @@
       <c r="I18" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="90"/>
       <c r="I20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="69"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="58" t="s">
         <v>97</v>
       </c>
@@ -2799,10 +2799,10 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="97"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="54" t="s">
         <v>98</v>
       </c>
@@ -2815,10 +2815,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="13.5" customHeight="1">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="97"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="54" t="s">
         <v>96</v>
       </c>
@@ -2829,11 +2829,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B24" s="102" t="s">
+    <row r="24" spans="2:11" ht="14.4" thickBot="1">
+      <c r="B24" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="103"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="61" t="s">
         <v>95</v>
       </c>
@@ -2843,29 +2843,29 @@
       <c r="J24" s="62"/>
       <c r="K24" s="68"/>
     </row>
-    <row r="27" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B27" s="93" t="s">
+    <row r="27" spans="2:11" ht="14.4" thickBot="1">
+      <c r="B27" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-    </row>
-    <row r="28" spans="2:11" ht="40.5">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+    </row>
+    <row r="28" spans="2:11" ht="41.4">
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="98"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="72" t="s">
         <v>22</v>
       </c>
@@ -2873,16 +2873,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B29" s="106" t="s">
+    <row r="29" spans="2:11" ht="14.4" thickBot="1">
+      <c r="B29" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="107"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="18">
         <f>E29 - D29</f>
         <v>0</v>
@@ -2892,16 +2892,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.25" thickBot="1">
+    <row r="30" spans="2:11" ht="14.4" thickBot="1">
       <c r="G30" s="68"/>
       <c r="I30" s="68"/>
       <c r="J30" s="68"/>
     </row>
-    <row r="31" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B31" s="100" t="s">
+    <row r="31" spans="2:11" ht="14.4" thickBot="1">
+      <c r="B31" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="22"/>
       <c r="G31" s="31"/>
     </row>
@@ -2931,20 +2931,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -2955,6 +2941,20 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <printOptions horizontalCentered="1"/>
@@ -2972,24 +2972,24 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="61.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="38" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="38" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" thickBot="1">
+    <row r="2" spans="1:6" ht="14.4" thickBot="1">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2998,16 +2998,16 @@
       </c>
       <c r="C2" s="67"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" thickBot="1">
+    <row r="3" spans="1:6" ht="13.8" thickBot="1">
       <c r="A3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="78" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="67"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1">
+    <row r="4" spans="1:6" ht="13.8" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>39</v>
       </c>
@@ -3041,15 +3041,15 @@
         <v>101</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3128,264 +3128,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.75" customWidth="1"/>
+    <col min="1" max="1" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="114"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B18:E18"/>
@@ -3400,37 +3410,12 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDC787A71DDF645B3B1EC4B4C087709" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfcc5dabae62faba7569d214b4f3e22c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3544,17 +3529,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3568,17 +3569,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>